--- a/biology/Zoologie/Clupeonella_cultriventris/Clupeonella_cultriventris.xlsx
+++ b/biology/Zoologie/Clupeonella_cultriventris/Clupeonella_cultriventris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clupéonelle, Clupeonelle
-Clupeonella cultriventris, communément appelé Clupéonelle[2] ou Clupeonelle[2], est une espèce de poissons de la famille des Clupeidae.
+Clupeonella cultriventris, communément appelé Clupéonelle ou Clupeonelle, est une espèce de poissons de la famille des Clupeidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Clupeonella cultriventris a été initialement décrite en 1840 par Alexander von Nordmann sous le protonyme de Clupea cultriventris[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Clupeonella cultriventris a été initialement décrite en 1840 par Alexander von Nordmann sous le protonyme de Clupea cultriventris.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans le Nord-Ouest de la mer Noire, dans la mer d'Azov et dans la mer Caspienne, ainsi que dans tous les cours d'eau qui s'y jettent et ce jusqu'à 60 km à l'intérieur des terres[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans le Nord-Ouest de la mer Noire, dans la mer d'Azov et dans la mer Caspienne, ainsi que dans tous les cours d'eau qui s'y jettent et ce jusqu'à 60 km à l'intérieur des terres.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clupeonella cultriventris peut mesurer jusqu'à 145 mm mais sa taille habituelle est d'environ 100 mm[2]. Cette espèce est donnée pour vivre jusqu'à 5 ans[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clupeonella cultriventris peut mesurer jusqu'à 145 mm mais sa taille habituelle est d'environ 100 mm. Cette espèce est donnée pour vivre jusqu'à 5 ans.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin culter, « couteau », et ventris, « ventre », lui a été donnée en référence aux dentelures aiguisées le long de son abdomen[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin culter, « couteau », et ventris, « ventre », lui a été donnée en référence aux dentelures aiguisées le long de son abdomen.
 </t>
         </is>
       </c>
